--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tgm2-Sdc4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tgm2-Sdc4.xlsx
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>57.37146666666666</v>
+        <v>61.06878433333333</v>
       </c>
       <c r="H2">
-        <v>172.1144</v>
+        <v>183.206353</v>
       </c>
       <c r="I2">
-        <v>0.3670776276928175</v>
+        <v>0.4308066250287063</v>
       </c>
       <c r="J2">
-        <v>0.3670776276928174</v>
+        <v>0.4308066250287063</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>2.085625</v>
+        <v>1.222961333333333</v>
       </c>
       <c r="N2">
-        <v>6.256875</v>
+        <v>3.668884</v>
       </c>
       <c r="O2">
-        <v>0.02635737528678909</v>
+        <v>0.02082890820948692</v>
       </c>
       <c r="P2">
-        <v>0.02635737528678909</v>
+        <v>0.02082890820948692</v>
       </c>
       <c r="Q2">
-        <v>119.6553651666667</v>
+        <v>74.68476191333912</v>
       </c>
       <c r="R2">
-        <v>1076.8982865</v>
+        <v>672.162857220052</v>
       </c>
       <c r="S2">
-        <v>0.009675202792483836</v>
+        <v>0.008973231648761773</v>
       </c>
       <c r="T2">
-        <v>0.009675202792483835</v>
+        <v>0.008973231648761777</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>57.37146666666666</v>
+        <v>61.06878433333333</v>
       </c>
       <c r="H3">
-        <v>172.1144</v>
+        <v>183.206353</v>
       </c>
       <c r="I3">
-        <v>0.3670776276928175</v>
+        <v>0.4308066250287063</v>
       </c>
       <c r="J3">
-        <v>0.3670776276928174</v>
+        <v>0.4308066250287063</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>29.801266</v>
       </c>
       <c r="O3">
-        <v>0.1255392111850449</v>
+        <v>0.1691870972318839</v>
       </c>
       <c r="P3">
-        <v>0.1255392111850449</v>
+        <v>0.169187097231884</v>
       </c>
       <c r="Q3">
-        <v>569.9141129811554</v>
+        <v>606.642362071433</v>
       </c>
       <c r="R3">
-        <v>5129.227016830399</v>
+        <v>5459.781258642898</v>
       </c>
       <c r="S3">
-        <v>0.04608263582423391</v>
+        <v>0.0728869223568715</v>
       </c>
       <c r="T3">
-        <v>0.04608263582423391</v>
+        <v>0.07288692235687153</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>57.37146666666666</v>
+        <v>61.06878433333333</v>
       </c>
       <c r="H4">
-        <v>172.1144</v>
+        <v>183.206353</v>
       </c>
       <c r="I4">
-        <v>0.3670776276928175</v>
+        <v>0.4308066250287063</v>
       </c>
       <c r="J4">
-        <v>0.3670776276928174</v>
+        <v>0.4308066250287063</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.006021</v>
+        <v>14.516908</v>
       </c>
       <c r="N4">
-        <v>90.01806300000001</v>
+        <v>43.550724</v>
       </c>
       <c r="O4">
-        <v>0.3792052532743301</v>
+        <v>0.247245220250272</v>
       </c>
       <c r="P4">
-        <v>0.3792052532743301</v>
+        <v>0.2472452202502721</v>
       </c>
       <c r="Q4">
-        <v>1721.4894336008</v>
+        <v>886.5299238388413</v>
       </c>
       <c r="R4">
-        <v>15493.4049024072</v>
+        <v>7978.769314549573</v>
       </c>
       <c r="S4">
-        <v>0.1391977647805951</v>
+        <v>0.1065148788904988</v>
       </c>
       <c r="T4">
-        <v>0.1391977647805951</v>
+        <v>0.1065148788904989</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>57.37146666666666</v>
+        <v>61.06878433333333</v>
       </c>
       <c r="H5">
-        <v>172.1144</v>
+        <v>183.206353</v>
       </c>
       <c r="I5">
-        <v>0.3670776276928175</v>
+        <v>0.4308066250287063</v>
       </c>
       <c r="J5">
-        <v>0.3670776276928174</v>
+        <v>0.4308066250287063</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.70503166666666</v>
+        <v>12.24131666666667</v>
       </c>
       <c r="N5">
-        <v>47.115095</v>
+        <v>36.72395</v>
       </c>
       <c r="O5">
-        <v>0.1984745165258568</v>
+        <v>0.2084884078209579</v>
       </c>
       <c r="P5">
-        <v>0.1984745165258568</v>
+        <v>0.2084884078209579</v>
       </c>
       <c r="Q5">
-        <v>901.020700763111</v>
+        <v>747.5623274727056</v>
       </c>
       <c r="R5">
-        <v>8109.186306867999</v>
+        <v>6728.060947254351</v>
       </c>
       <c r="S5">
-        <v>0.07285555468379042</v>
+        <v>0.0898181873309554</v>
       </c>
       <c r="T5">
-        <v>0.07285555468379042</v>
+        <v>0.08981818733095541</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>57.37146666666666</v>
+        <v>61.06878433333333</v>
       </c>
       <c r="H6">
-        <v>172.1144</v>
+        <v>183.206353</v>
       </c>
       <c r="I6">
-        <v>0.3670776276928175</v>
+        <v>0.4308066250287063</v>
       </c>
       <c r="J6">
-        <v>0.3670776276928174</v>
+        <v>0.4308066250287063</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>21.398273</v>
+        <v>20.799674</v>
       </c>
       <c r="N6">
-        <v>64.194819</v>
+        <v>62.399022</v>
       </c>
       <c r="O6">
-        <v>0.2704236437279791</v>
+        <v>0.3542503664873991</v>
       </c>
       <c r="P6">
-        <v>0.2704236437279791</v>
+        <v>0.3542503664873992</v>
       </c>
       <c r="Q6">
-        <v>1227.650306143733</v>
+        <v>1270.210805709641</v>
       </c>
       <c r="R6">
-        <v>11048.8527552936</v>
+        <v>11431.89725138677</v>
       </c>
       <c r="S6">
-        <v>0.09926646961171423</v>
+        <v>0.1526134048016187</v>
       </c>
       <c r="T6">
-        <v>0.0992664696117142</v>
+        <v>0.1526134048016188</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,40 +856,40 @@
         <v>10.864809</v>
       </c>
       <c r="I7">
-        <v>0.02317196186406003</v>
+        <v>0.02554841368886107</v>
       </c>
       <c r="J7">
-        <v>0.02317196186406003</v>
+        <v>0.02554841368886107</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>2.085625</v>
+        <v>1.222961333333333</v>
       </c>
       <c r="N7">
-        <v>6.256875</v>
+        <v>3.668884</v>
       </c>
       <c r="O7">
-        <v>0.02635737528678909</v>
+        <v>0.02082890820948692</v>
       </c>
       <c r="P7">
-        <v>0.02635737528678909</v>
+        <v>0.02082890820948692</v>
       </c>
       <c r="Q7">
-        <v>7.553305756875</v>
+        <v>4.429080433684001</v>
       </c>
       <c r="R7">
-        <v>67.979751811875</v>
+        <v>39.861723903156</v>
       </c>
       <c r="S7">
-        <v>0.0006107520949821952</v>
+        <v>0.0005321455636232864</v>
       </c>
       <c r="T7">
-        <v>0.0006107520949821951</v>
+        <v>0.0005321455636232865</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>10.864809</v>
       </c>
       <c r="I8">
-        <v>0.02317196186406003</v>
+        <v>0.02554841368886107</v>
       </c>
       <c r="J8">
-        <v>0.02317196186406003</v>
+        <v>0.02554841368886107</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>29.801266</v>
       </c>
       <c r="O8">
-        <v>0.1255392111850449</v>
+        <v>0.1691870972318839</v>
       </c>
       <c r="P8">
-        <v>0.1255392111850449</v>
+        <v>0.169187097231884</v>
       </c>
       <c r="Q8">
         <v>35.976118116466</v>
@@ -948,10 +948,10 @@
         <v>323.785063048194</v>
       </c>
       <c r="S8">
-        <v>0.002908989814024039</v>
+        <v>0.004322461950897733</v>
       </c>
       <c r="T8">
-        <v>0.002908989814024039</v>
+        <v>0.004322461950897734</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>10.864809</v>
       </c>
       <c r="I9">
-        <v>0.02317196186406003</v>
+        <v>0.02554841368886107</v>
       </c>
       <c r="J9">
-        <v>0.02317196186406003</v>
+        <v>0.02554841368886107</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>30.006021</v>
+        <v>14.516908</v>
       </c>
       <c r="N9">
-        <v>90.01806300000001</v>
+        <v>43.550724</v>
       </c>
       <c r="O9">
-        <v>0.3792052532743301</v>
+        <v>0.247245220250272</v>
       </c>
       <c r="P9">
-        <v>0.3792052532743301</v>
+        <v>0.2472452202502721</v>
       </c>
       <c r="Q9">
-        <v>108.669895671663</v>
+        <v>52.57447756352401</v>
       </c>
       <c r="R9">
-        <v>978.0290610449672</v>
+        <v>473.170298071716</v>
       </c>
       <c r="S9">
-        <v>0.008786929667524002</v>
+        <v>0.006316723169547521</v>
       </c>
       <c r="T9">
-        <v>0.008786929667524</v>
+        <v>0.006316723169547522</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>10.864809</v>
       </c>
       <c r="I10">
-        <v>0.02317196186406003</v>
+        <v>0.02554841368886107</v>
       </c>
       <c r="J10">
-        <v>0.02317196186406003</v>
+        <v>0.02554841368886107</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.70503166666666</v>
+        <v>12.24131666666667</v>
       </c>
       <c r="N10">
-        <v>47.115095</v>
+        <v>36.72395</v>
       </c>
       <c r="O10">
-        <v>0.1984745165258568</v>
+        <v>0.2084884078209579</v>
       </c>
       <c r="P10">
-        <v>0.1984745165258568</v>
+        <v>0.2084884078209579</v>
       </c>
       <c r="Q10">
-        <v>56.877389799095</v>
+        <v>44.33318916395001</v>
       </c>
       <c r="R10">
-        <v>511.896508191855</v>
+        <v>398.99870247555</v>
       </c>
       <c r="S10">
-        <v>0.004599043927924907</v>
+        <v>0.005326548092341811</v>
       </c>
       <c r="T10">
-        <v>0.004599043927924906</v>
+        <v>0.005326548092341811</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>10.864809</v>
       </c>
       <c r="I11">
-        <v>0.02317196186406003</v>
+        <v>0.02554841368886107</v>
       </c>
       <c r="J11">
-        <v>0.02317196186406003</v>
+        <v>0.02554841368886107</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.398273</v>
+        <v>20.799674</v>
       </c>
       <c r="N11">
-        <v>64.194819</v>
+        <v>62.399022</v>
       </c>
       <c r="O11">
-        <v>0.2704236437279791</v>
+        <v>0.3542503664873991</v>
       </c>
       <c r="P11">
-        <v>0.2704236437279791</v>
+        <v>0.3542503664873992</v>
       </c>
       <c r="Q11">
-        <v>77.49604969161901</v>
+        <v>75.32816175742201</v>
       </c>
       <c r="R11">
-        <v>697.464447224571</v>
+        <v>677.9534558167981</v>
       </c>
       <c r="S11">
-        <v>0.006266246359604888</v>
+        <v>0.00905053491245072</v>
       </c>
       <c r="T11">
-        <v>0.006266246359604886</v>
+        <v>0.009050534912450722</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>52.06923066666667</v>
+        <v>36.843258</v>
       </c>
       <c r="H12">
-        <v>156.207692</v>
+        <v>110.529774</v>
       </c>
       <c r="I12">
-        <v>0.3331525369564099</v>
+        <v>0.2599088848306786</v>
       </c>
       <c r="J12">
-        <v>0.3331525369564098</v>
+        <v>0.2599088848306786</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>2.085625</v>
+        <v>1.222961333333333</v>
       </c>
       <c r="N12">
-        <v>6.256875</v>
+        <v>3.668884</v>
       </c>
       <c r="O12">
-        <v>0.02635737528678909</v>
+        <v>0.02082890820948692</v>
       </c>
       <c r="P12">
-        <v>0.02635737528678909</v>
+        <v>0.02082890820948692</v>
       </c>
       <c r="Q12">
-        <v>108.5968892091667</v>
+        <v>45.057879928024</v>
       </c>
       <c r="R12">
-        <v>977.3720028825001</v>
+        <v>405.520919352216</v>
       </c>
       <c r="S12">
-        <v>0.00878102644430597</v>
+        <v>0.005413618304968312</v>
       </c>
       <c r="T12">
-        <v>0.008781026444305968</v>
+        <v>0.005413618304968314</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>52.06923066666667</v>
+        <v>36.843258</v>
       </c>
       <c r="H13">
-        <v>156.207692</v>
+        <v>110.529774</v>
       </c>
       <c r="I13">
-        <v>0.3331525369564099</v>
+        <v>0.2599088848306786</v>
       </c>
       <c r="J13">
-        <v>0.3331525369564098</v>
+        <v>0.2599088848306786</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>29.801266</v>
       </c>
       <c r="O13">
-        <v>0.1255392111850449</v>
+        <v>0.1691870972318839</v>
       </c>
       <c r="P13">
-        <v>0.1255392111850449</v>
+        <v>0.169187097231884</v>
       </c>
       <c r="Q13">
-        <v>517.2429978375635</v>
+        <v>365.9919106548759</v>
       </c>
       <c r="R13">
-        <v>4655.186980538072</v>
+        <v>3293.927195893884</v>
       </c>
       <c r="S13">
-        <v>0.04182370669380423</v>
+        <v>0.04397322976927855</v>
       </c>
       <c r="T13">
-        <v>0.04182370669380422</v>
+        <v>0.04397322976927857</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>52.06923066666667</v>
+        <v>36.843258</v>
       </c>
       <c r="H14">
-        <v>156.207692</v>
+        <v>110.529774</v>
       </c>
       <c r="I14">
-        <v>0.3331525369564099</v>
+        <v>0.2599088848306786</v>
       </c>
       <c r="J14">
-        <v>0.3331525369564098</v>
+        <v>0.2599088848306786</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>30.006021</v>
+        <v>14.516908</v>
       </c>
       <c r="N14">
-        <v>90.01806300000001</v>
+        <v>43.550724</v>
       </c>
       <c r="O14">
-        <v>0.3792052532743301</v>
+        <v>0.247245220250272</v>
       </c>
       <c r="P14">
-        <v>0.3792052532743301</v>
+        <v>0.2472452202502721</v>
       </c>
       <c r="Q14">
-        <v>1562.390428837844</v>
+        <v>534.850186806264</v>
       </c>
       <c r="R14">
-        <v>14061.5138595406</v>
+        <v>4813.651681256377</v>
       </c>
       <c r="S14">
-        <v>0.126333192155541</v>
+        <v>0.06426122947496372</v>
       </c>
       <c r="T14">
-        <v>0.126333192155541</v>
+        <v>0.06426122947496374</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>52.06923066666667</v>
+        <v>36.843258</v>
       </c>
       <c r="H15">
-        <v>156.207692</v>
+        <v>110.529774</v>
       </c>
       <c r="I15">
-        <v>0.3331525369564099</v>
+        <v>0.2599088848306786</v>
       </c>
       <c r="J15">
-        <v>0.3331525369564098</v>
+        <v>0.2599088848306786</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>15.70503166666666</v>
+        <v>12.24131666666667</v>
       </c>
       <c r="N15">
-        <v>47.115095</v>
+        <v>36.72395</v>
       </c>
       <c r="O15">
-        <v>0.1984745165258568</v>
+        <v>0.2084884078209579</v>
       </c>
       <c r="P15">
-        <v>0.1984745165258568</v>
+        <v>0.2084884078209579</v>
       </c>
       <c r="Q15">
-        <v>817.7489164789711</v>
+        <v>451.0099882097001</v>
       </c>
       <c r="R15">
-        <v>7359.74024831074</v>
+        <v>4059.0898938873</v>
       </c>
       <c r="S15">
-        <v>0.0661222887017861</v>
+        <v>0.0541879895768689</v>
       </c>
       <c r="T15">
-        <v>0.06612228870178609</v>
+        <v>0.05418798957686891</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>52.06923066666667</v>
+        <v>36.843258</v>
       </c>
       <c r="H16">
-        <v>156.207692</v>
+        <v>110.529774</v>
       </c>
       <c r="I16">
-        <v>0.3331525369564099</v>
+        <v>0.2599088848306786</v>
       </c>
       <c r="J16">
-        <v>0.3331525369564098</v>
+        <v>0.2599088848306786</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>21.398273</v>
+        <v>20.799674</v>
       </c>
       <c r="N16">
-        <v>64.194819</v>
+        <v>62.399022</v>
       </c>
       <c r="O16">
-        <v>0.2704236437279791</v>
+        <v>0.3542503664873991</v>
       </c>
       <c r="P16">
-        <v>0.2704236437279791</v>
+        <v>0.3542503664873992</v>
       </c>
       <c r="Q16">
-        <v>1114.191612705305</v>
+        <v>766.327755497892</v>
       </c>
       <c r="R16">
-        <v>10027.72451434775</v>
+        <v>6896.949799481028</v>
       </c>
       <c r="S16">
-        <v>0.09009232296097258</v>
+        <v>0.09207281770459912</v>
       </c>
       <c r="T16">
-        <v>0.09009232296097255</v>
+        <v>0.09207281770459914</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,46 +1470,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.376274666666667</v>
+        <v>2.119603</v>
       </c>
       <c r="H17">
-        <v>4.128824</v>
+        <v>6.358808999999999</v>
       </c>
       <c r="I17">
-        <v>0.008805764765070032</v>
+        <v>0.01495263127961596</v>
       </c>
       <c r="J17">
-        <v>0.008805764765070031</v>
+        <v>0.01495263127961596</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>2.085625</v>
+        <v>1.222961333333333</v>
       </c>
       <c r="N17">
-        <v>6.256875</v>
+        <v>3.668884</v>
       </c>
       <c r="O17">
-        <v>0.02635737528678909</v>
+        <v>0.02082890820948692</v>
       </c>
       <c r="P17">
-        <v>0.02635737528678909</v>
+        <v>0.02082890820948692</v>
       </c>
       <c r="Q17">
-        <v>2.870392851666666</v>
+        <v>2.592192511017333</v>
       </c>
       <c r="R17">
-        <v>25.833535665</v>
+        <v>23.329732599156</v>
       </c>
       <c r="S17">
-        <v>0.000232096846600135</v>
+        <v>0.0003114469844134237</v>
       </c>
       <c r="T17">
-        <v>0.000232096846600135</v>
+        <v>0.0003114469844134238</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.376274666666667</v>
+        <v>2.119603</v>
       </c>
       <c r="H18">
-        <v>4.128824</v>
+        <v>6.358808999999999</v>
       </c>
       <c r="I18">
-        <v>0.008805764765070032</v>
+        <v>0.01495263127961596</v>
       </c>
       <c r="J18">
-        <v>0.008805764765070031</v>
+        <v>0.01495263127961596</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>29.801266</v>
       </c>
       <c r="O18">
-        <v>0.1255392111850449</v>
+        <v>0.1691870972318839</v>
       </c>
       <c r="P18">
-        <v>0.1255392111850449</v>
+        <v>0.169187097231884</v>
       </c>
       <c r="Q18">
-        <v>13.67157581013155</v>
+        <v>21.05561760579933</v>
       </c>
       <c r="R18">
-        <v>123.044182291184</v>
+        <v>189.500558452194</v>
       </c>
       <c r="S18">
-        <v>0.001105468762487954</v>
+        <v>0.002529792282176894</v>
       </c>
       <c r="T18">
-        <v>0.001105468762487954</v>
+        <v>0.002529792282176895</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.376274666666667</v>
+        <v>2.119603</v>
       </c>
       <c r="H19">
-        <v>4.128824</v>
+        <v>6.358808999999999</v>
       </c>
       <c r="I19">
-        <v>0.008805764765070032</v>
+        <v>0.01495263127961596</v>
       </c>
       <c r="J19">
-        <v>0.008805764765070031</v>
+        <v>0.01495263127961596</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>30.006021</v>
+        <v>14.516908</v>
       </c>
       <c r="N19">
-        <v>90.01806300000001</v>
+        <v>43.550724</v>
       </c>
       <c r="O19">
-        <v>0.3792052532743301</v>
+        <v>0.247245220250272</v>
       </c>
       <c r="P19">
-        <v>0.3792052532743301</v>
+        <v>0.2472452202502721</v>
       </c>
       <c r="Q19">
-        <v>41.296526549768</v>
+        <v>30.770081747524</v>
       </c>
       <c r="R19">
-        <v>371.6687389479121</v>
+        <v>276.930735727716</v>
       </c>
       <c r="S19">
-        <v>0.003339192258012554</v>
+        <v>0.003696966614049754</v>
       </c>
       <c r="T19">
-        <v>0.003339192258012553</v>
+        <v>0.003696966614049755</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.376274666666667</v>
+        <v>2.119603</v>
       </c>
       <c r="H20">
-        <v>4.128824</v>
+        <v>6.358808999999999</v>
       </c>
       <c r="I20">
-        <v>0.008805764765070032</v>
+        <v>0.01495263127961596</v>
       </c>
       <c r="J20">
-        <v>0.008805764765070031</v>
+        <v>0.01495263127961596</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>15.70503166666666</v>
+        <v>12.24131666666667</v>
       </c>
       <c r="N20">
-        <v>47.115095</v>
+        <v>36.72395</v>
       </c>
       <c r="O20">
-        <v>0.1984745165258568</v>
+        <v>0.2084884078209579</v>
       </c>
       <c r="P20">
-        <v>0.1984745165258568</v>
+        <v>0.2084884078209579</v>
       </c>
       <c r="Q20">
-        <v>21.61443722203111</v>
+        <v>25.94673153061667</v>
       </c>
       <c r="R20">
-        <v>194.52993499828</v>
+        <v>233.52058377555</v>
       </c>
       <c r="S20">
-        <v>0.0017477199043877</v>
+        <v>0.003117450288220983</v>
       </c>
       <c r="T20">
-        <v>0.0017477199043877</v>
+        <v>0.003117450288220983</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.376274666666667</v>
+        <v>2.119603</v>
       </c>
       <c r="H21">
-        <v>4.128824</v>
+        <v>6.358808999999999</v>
       </c>
       <c r="I21">
-        <v>0.008805764765070032</v>
+        <v>0.01495263127961596</v>
       </c>
       <c r="J21">
-        <v>0.008805764765070031</v>
+        <v>0.01495263127961596</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>21.398273</v>
+        <v>20.799674</v>
       </c>
       <c r="N21">
-        <v>64.194819</v>
+        <v>62.399022</v>
       </c>
       <c r="O21">
-        <v>0.2704236437279791</v>
+        <v>0.3542503664873991</v>
       </c>
       <c r="P21">
-        <v>0.2704236437279791</v>
+        <v>0.3542503664873992</v>
       </c>
       <c r="Q21">
-        <v>29.44990104031733</v>
+        <v>44.087051409422</v>
       </c>
       <c r="R21">
-        <v>265.049109362856</v>
+        <v>396.7834626847979</v>
       </c>
       <c r="S21">
-        <v>0.00238128699358169</v>
+        <v>0.0052969751107549</v>
       </c>
       <c r="T21">
-        <v>0.002381286993581689</v>
+        <v>0.005296975110754902</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,46 +1780,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>41.85388833333334</v>
+        <v>38.101267</v>
       </c>
       <c r="H22">
-        <v>125.561665</v>
+        <v>114.303801</v>
       </c>
       <c r="I22">
-        <v>0.2677921087216426</v>
+        <v>0.268783445172138</v>
       </c>
       <c r="J22">
-        <v>0.2677921087216426</v>
+        <v>0.268783445172138</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>2.085625</v>
+        <v>1.222961333333333</v>
       </c>
       <c r="N22">
-        <v>6.256875</v>
+        <v>3.668884</v>
       </c>
       <c r="O22">
-        <v>0.02635737528678909</v>
+        <v>0.02082890820948692</v>
       </c>
       <c r="P22">
-        <v>0.02635737528678909</v>
+        <v>0.02082890820948692</v>
       </c>
       <c r="Q22">
-        <v>87.29151585520833</v>
+        <v>46.59637629200933</v>
       </c>
       <c r="R22">
-        <v>785.623642696875</v>
+        <v>419.367386628084</v>
       </c>
       <c r="S22">
-        <v>0.007058297108416961</v>
+        <v>0.005598465707720122</v>
       </c>
       <c r="T22">
-        <v>0.00705829710841696</v>
+        <v>0.005598465707720123</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>41.85388833333334</v>
+        <v>38.101267</v>
       </c>
       <c r="H23">
-        <v>125.561665</v>
+        <v>114.303801</v>
       </c>
       <c r="I23">
-        <v>0.2677921087216426</v>
+        <v>0.268783445172138</v>
       </c>
       <c r="J23">
-        <v>0.2677921087216426</v>
+        <v>0.268783445172138</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>29.801266</v>
       </c>
       <c r="O23">
-        <v>0.1255392111850449</v>
+        <v>0.1691870972318839</v>
       </c>
       <c r="P23">
-        <v>0.1255392111850449</v>
+        <v>0.169187097231884</v>
       </c>
       <c r="Q23">
-        <v>415.7662864519878</v>
+        <v>378.4886642680073</v>
       </c>
       <c r="R23">
-        <v>3741.89657806789</v>
+        <v>3406.397978412066</v>
       </c>
       <c r="S23">
-        <v>0.03361841009049481</v>
+        <v>0.04547469087265926</v>
       </c>
       <c r="T23">
-        <v>0.0336184100904948</v>
+        <v>0.04547469087265927</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>41.85388833333334</v>
+        <v>38.101267</v>
       </c>
       <c r="H24">
-        <v>125.561665</v>
+        <v>114.303801</v>
       </c>
       <c r="I24">
-        <v>0.2677921087216426</v>
+        <v>0.268783445172138</v>
       </c>
       <c r="J24">
-        <v>0.2677921087216426</v>
+        <v>0.268783445172138</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>30.006021</v>
+        <v>14.516908</v>
       </c>
       <c r="N24">
-        <v>90.01806300000001</v>
+        <v>43.550724</v>
       </c>
       <c r="O24">
-        <v>0.3792052532743301</v>
+        <v>0.247245220250272</v>
       </c>
       <c r="P24">
-        <v>0.3792052532743301</v>
+        <v>0.2472452202502721</v>
       </c>
       <c r="Q24">
-        <v>1255.868652261655</v>
+        <v>553.112587722436</v>
       </c>
       <c r="R24">
-        <v>11302.8178703549</v>
+        <v>4978.013289501924</v>
       </c>
       <c r="S24">
-        <v>0.1015481744126574</v>
+        <v>0.06645542210121218</v>
       </c>
       <c r="T24">
-        <v>0.1015481744126574</v>
+        <v>0.06645542210121218</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>41.85388833333334</v>
+        <v>38.101267</v>
       </c>
       <c r="H25">
-        <v>125.561665</v>
+        <v>114.303801</v>
       </c>
       <c r="I25">
-        <v>0.2677921087216426</v>
+        <v>0.268783445172138</v>
       </c>
       <c r="J25">
-        <v>0.2677921087216426</v>
+        <v>0.268783445172138</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>15.70503166666666</v>
+        <v>12.24131666666667</v>
       </c>
       <c r="N25">
-        <v>47.115095</v>
+        <v>36.72395</v>
       </c>
       <c r="O25">
-        <v>0.1984745165258568</v>
+        <v>0.2084884078209579</v>
       </c>
       <c r="P25">
-        <v>0.1984745165258568</v>
+        <v>0.2084884078209579</v>
       </c>
       <c r="Q25">
-        <v>657.3166416481306</v>
+        <v>466.4096747482167</v>
       </c>
       <c r="R25">
-        <v>5915.849774833175</v>
+        <v>4197.68707273395</v>
       </c>
       <c r="S25">
-        <v>0.0531499093079677</v>
+        <v>0.05603823253257079</v>
       </c>
       <c r="T25">
-        <v>0.05314990930796769</v>
+        <v>0.05603823253257078</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>41.85388833333334</v>
+        <v>38.101267</v>
       </c>
       <c r="H26">
-        <v>125.561665</v>
+        <v>114.303801</v>
       </c>
       <c r="I26">
-        <v>0.2677921087216426</v>
+        <v>0.268783445172138</v>
       </c>
       <c r="J26">
-        <v>0.2677921087216426</v>
+        <v>0.268783445172138</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>21.398273</v>
+        <v>20.799674</v>
       </c>
       <c r="N26">
-        <v>64.194819</v>
+        <v>62.399022</v>
       </c>
       <c r="O26">
-        <v>0.2704236437279791</v>
+        <v>0.3542503664873991</v>
       </c>
       <c r="P26">
-        <v>0.2704236437279791</v>
+        <v>0.3542503664873992</v>
       </c>
       <c r="Q26">
-        <v>895.6009286681817</v>
+        <v>792.493932586958</v>
       </c>
       <c r="R26">
-        <v>8060.408358013635</v>
+        <v>7132.445393282622</v>
       </c>
       <c r="S26">
-        <v>0.07241731780210572</v>
+        <v>0.09521663395797564</v>
       </c>
       <c r="T26">
-        <v>0.0724173178021057</v>
+        <v>0.09521663395797565</v>
       </c>
     </row>
   </sheetData>
